--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -64,6 +64,42 @@
   </si>
   <si>
     <t xml:space="preserve"> Èà üóï, ðñéíéóå îàšé éòëñåîîéå\náìàãïäàñîïòóé!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The guild is preparing for an\nexpedition soon?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Please do try to be chosen\nas members! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Гильдия готовится к\nэкспедиции?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Пожалуйста, постарайтесь, чтобы\nвас в неё взяли! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ãéìûäéÿ ãïóïâéóòÿ ë\nüëòðåäéøéé?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïçàìôêòóà, ðïòóàñàêóåòû, œóïáú\nâàò â îåæ âèÿìé! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You were chosen for the\nexpedition?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Congratulations! I so hope you\ndo very well! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вас взяли в экспедицию?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поздравляю! Я очень надеюсь,\nчто всё пройдёт хорошо! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âàò âèÿìé â üëòðåäéøéý?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïèäñàâìÿý! Ÿ ïœåîû îàäåýòû,\nœóï âòæ ðñïêäæó öïñïšï! ♪</t>
   </si>
 </sst>
 </file>
@@ -94,7 +130,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -126,11 +162,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -145,6 +190,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -492,17 +543,103 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B4" s="4">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6">
         <v>418</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="7" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="4">
+        <v>382</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B6" s="4">
+        <v>385</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="6"/>
+      <c r="B7" s="6">
+        <v>388</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="4">
+        <v>352</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="4">
+        <v>355</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B10" s="4">
+        <v>358</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïèäñàâìÿý! Ÿ ïœåîû îàäåýòû,\nœóï âòæ ðñïêäæó öïñïšï! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, welcome back! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It sounds very much like it was\na fine expedition for your guild! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ах, с возвращением! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Похоже, ваша экспедиция\nувенчалась успехом! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àö, ò âïèâñàþåîéåí! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïöïçå, âàšà üëòðåäéøéÿ\nôâåîœàìàòû ôòðåöïí! ♪</t>
   </si>
 </sst>
 </file>
@@ -478,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -629,17 +647,46 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="A10" s="6"/>
+      <c r="B10" s="6">
         <v>358</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="7" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="4">
+        <v>325</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B12" s="4">
+        <v>328</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -118,6 +118,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïöïçå, âàšà üëòðåäéøéÿ\nôâåîœàìàòû ôòðåöïí! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ah, yes, it was very surprising,\nto say the least! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The great [CS:N]Dusknoir[CR] is a Pokémon\nfrom the future! Imagine that!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ах, да, мягко говоря, это было\nочень поразительно! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Поверить трудно! Великий\n[CS:N]Даскнуар[CR] - Покемон из будущего!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Àö, äà, íÿãëï ãïâïñÿ, üóï áúìï\nïœåîû ðïñàèéóåìûîï! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ðïâåñéóû óñôäîï! Âåìéëéê\n[CS:N]Äàòëîôàñ[CR] - Ðïëåíïî éè áôäôþåãï!</t>
   </si>
 </sst>
 </file>
@@ -496,10 +514,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,17 +694,46 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="A12" s="6"/>
+      <c r="B12" s="6">
         <v>328</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="7" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B13" s="4">
+        <v>284</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="4">
+        <v>287</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -136,6 +136,33 @@
   </si>
   <si>
     <t xml:space="preserve"> Ðïâåñéóû óñôäîï! Âåìéëéê\n[CS:N]Äàòëîôàñ[CR] - Ðïëåíïî éè áôäôþåãï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We were very worried about\nyou. No one seemed to know where you went!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It is good to see you home safe!\nAnd good to have you shop with us again! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Мы за вас очень переживали.\nНикто не знал, куда вас занесло!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Рад, что вы вернулись в целости\nи сохранности! И также, я рад, что вы\nснова можете вести с нами дела! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íú èà âàò ïœåîû ðåñåçéâàìé.\nÎéëóï îå èîàì, ëôäà âàò èàîåòìï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ñàä, œóï âú âåñîôìéòû â øåìïòóé\né òïöñàîîïòóé! É óàëçå, ÿ ñàä, œóï âú\nòîïâà íïçåóå âåòóé ò îàíé äåìà! ♪</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> My thoughts go with you! I do\nhope the best for you!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Все мои мысли только о вас!\nЯ желаю вам всего наилучшего!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âòå íïé íúòìé óïìûëï ï âàò!\nŸ çåìàý âàí âòåãï îàéìôœšåãï!</t>
   </si>
 </sst>
 </file>
@@ -514,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,17 +750,75 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6">
         <v>287</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="7" t="s">
         <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="4">
+        <v>240</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B16" s="4">
+        <v>243</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="6">
+        <v>246</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="4">
+        <v>202</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t xml:space="preserve"> Âòå íïé íúòìé óïìûëï ï âàò!\nŸ çåìàý âàí âòåãï îàéìôœšåãï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You have completed the guild\'s\ngraduation exam?! How fantastic!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы сумели пройти гильдейский\nвыпускной экзамен?! Здорово!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú òôíåìé ðñïêóé ãéìûäåêòëéê\nâúðôòëîïê üëèàíåî?! Èäïñïâï!</t>
   </si>
 </sst>
 </file>
@@ -193,7 +202,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -234,11 +243,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -259,6 +279,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -808,17 +834,47 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8">
         <v>202</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="9" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="4">
+        <v>161</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="31.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="6">
+        <v>164</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
+++ b/Texts/Город Сокровищ/Все персонажи/Кеклеон (зелёный).xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="72">
   <si>
     <t>Название файла в скриптах и цвет</t>
   </si>
@@ -172,6 +172,69 @@
   </si>
   <si>
     <t xml:space="preserve"> Âú òôíåìé ðñïêóé ãéìûäåêòëéê\nâúðôòëîïê üëèàíåî?! Èäïñïâï!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Could it be true?[K] Team [CS:X]Charm[CR]\nis truly visiting?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What am I doing? This is no\ntime for me to worry about this shop!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Это правда?[K] Нас посетила Команда\n[CS:X]Шарм[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Что я делаю? Мне незачем об этом\nдумать!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Üóï ðñàâäà?[K] Îàò ðïòåóéìà Ëïíàîäà\n[CS:X]Šàñí[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Œóï ÿ äåìàý? Íîå îåèàœåí ïá üóïí\näôíàóû!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Little [CS:N]Azurill[CR] will not awaken\nfrom a nightmare...?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Hmm... That is quite\nworrisome…</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will wish for your success,\n[hero] and [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> You\'ve defeated [CS:N]Darkrai[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> That\'s the [hero] and\n[partner] I revere! So fantastic!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Малютка [CS:N]Азурилл[CR] не может\nпробудиться от кошмара?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Хмм... Это весьма тревожно...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Я желаю вам успеха, [hero]\nи [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вы победили [CS:N]Даркрая[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Вот это [hero] и\n[partner], которых я знаю! Как здорово!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Íàìýóëà [CS:N]Àèôñéìì[CR] îå íïçåó\nðñïáôäéóûòÿ ïó ëïšíàñà?..</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Öíí... Üóï âåòûíà óñåâïçîï...</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Ÿ çåìàý âàí ôòðåöà, [hero]\né [partner]!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âú ðïáåäéìé [CS:N]Äàñëñàÿ[CR]?!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Âïó üóï [hero] é\n[partner], ëïóïñúö ÿ èîàý! Ëàë èäïñïâï!</t>
   </si>
 </sst>
 </file>
@@ -567,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -877,6 +940,121 @@
         <v>50</v>
       </c>
     </row>
+    <row r="21" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B21" s="4">
+        <v>134</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="6">
+        <v>137</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B23" s="4">
+        <v>79</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6">
+        <v>82</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8">
+        <v>55</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="4">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="4">
+        <v>28</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="21.6" x14ac:dyDescent="0.3">
+      <c r="B28" s="4">
+        <v>31</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
